--- a/SCRUM Files/Sprint 3 Backlog.xlsx
+++ b/SCRUM Files/Sprint 3 Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Project 2 Group 4</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Andrew Lam/ Tony Huynh</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -745,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>1.1299999999999999</v>
       </c>
@@ -756,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1.1399999999999999</v>
       </c>
@@ -764,13 +767,16 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1.1499999999999999</v>
       </c>
@@ -778,13 +784,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>1.1599999999999999</v>
       </c>
@@ -795,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>1.17</v>
       </c>
@@ -806,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -814,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>2.1</v>
       </c>
@@ -825,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>2.2000000000000002</v>
       </c>
@@ -836,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>2.2999999999999998</v>
       </c>
@@ -847,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>2.4</v>
       </c>
@@ -858,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>2.5</v>
       </c>
@@ -869,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>2.6</v>
       </c>
@@ -882,8 +891,11 @@
       <c r="E29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>2.7</v>
       </c>
@@ -894,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>2.8</v>
       </c>
@@ -905,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>2.9</v>
       </c>
@@ -916,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <v>2.1</v>
       </c>
@@ -927,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>2.11</v>
       </c>
@@ -940,8 +952,11 @@
       <c r="E34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -949,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>3.1</v>
       </c>
@@ -960,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>3.2</v>
       </c>
@@ -971,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>3.3</v>
       </c>
@@ -984,8 +999,11 @@
       <c r="E39" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>3.4</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>3.5</v>
       </c>
@@ -1009,8 +1027,11 @@
       <c r="E41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>3.6</v>
       </c>
@@ -1021,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>3.7</v>
       </c>
@@ -1032,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>3.8</v>
       </c>
@@ -1043,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1051,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>4.0999999999999996</v>
       </c>
@@ -1064,8 +1085,11 @@
       <c r="E47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>4.2</v>
       </c>
@@ -1078,8 +1102,11 @@
       <c r="E48" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>4.3</v>
       </c>
@@ -1092,8 +1119,11 @@
       <c r="E49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>4.3</v>
       </c>
@@ -1101,13 +1131,16 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>4.4000000000000004</v>
       </c>
@@ -1115,13 +1148,16 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>4.5</v>
       </c>
@@ -1134,8 +1170,11 @@
       <c r="E52" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>4.5999999999999996</v>
       </c>
@@ -1143,13 +1182,16 @@
         <v>57</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>4.7</v>
       </c>
@@ -1162,8 +1204,11 @@
       <c r="E54" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>4.8</v>
       </c>
@@ -1176,8 +1221,11 @@
       <c r="E55" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
         <v>60</v>
       </c>
